--- a/任务及绩效评价/SE2019春-G11-第五周任务以及绩效评价.xlsx
+++ b/任务及绩效评价/SE2019春-G11-第五周任务以及绩效评价.xlsx
@@ -90,11 +90,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第四周任务清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可行性研究报告PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五周任务清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,14 +184,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,7 +510,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,16 +523,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -563,7 +563,7 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>0.7</v>
       </c>
     </row>
@@ -580,7 +580,7 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -595,7 +595,7 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -613,7 +613,7 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>0.75</v>
       </c>
     </row>
@@ -630,7 +630,7 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -648,7 +648,7 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>0.76</v>
       </c>
     </row>
@@ -666,12 +666,12 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -682,10 +682,10 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="7"/>
+      <c r="F13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/任务及绩效评价/SE2019春-G11-第五周任务以及绩效评价.xlsx
+++ b/任务及绩效评价/SE2019春-G11-第五周任务以及绩效评价.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
-    <sheet name="20180323" sheetId="4" r:id="rId1"/>
+    <sheet name="第五周任务清单" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -510,7 +510,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
